--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67C7534-56A4-469A-A9E0-AB3F31681BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876FFB04-69ED-4614-B2BF-FB9FDCE860F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,24 +25,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Easy</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/palindrome-number</t>
-  </si>
-  <si>
     <t>Hint</t>
   </si>
   <si>
     <t>rev = (rev * 10) + rem;</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/majority-element</t>
-  </si>
-  <si>
     <t>Boyre Moore Voting Algorithm</t>
+  </si>
+  <si>
+    <t>Double the size of the new array</t>
+  </si>
+  <si>
+    <t>arr[i]=arr[i+nums.length]=nums[i]</t>
+  </si>
+  <si>
+    <t>palindrome-number</t>
+  </si>
+  <si>
+    <t>majority-element</t>
+  </si>
+  <si>
+    <t>concatenation-of-array</t>
+  </si>
+  <si>
+    <t>subtract-the-product-and-sum-of-digits-of-an-integer</t>
+  </si>
+  <si>
+    <t>sum+=n%10; product*=n%10</t>
   </si>
 </sst>
 </file>
@@ -374,15 +389,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" customWidth="1"/>
     <col min="3" max="3" width="26.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -391,31 +407,54 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E27A10E6-7C0E-4BB3-A0C3-B091DEE8700C}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{F5212C32-3835-409A-BB6F-01345955707A}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://leetcode.com/problems/palindrome-number" xr:uid="{E27A10E6-7C0E-4BB3-A0C3-B091DEE8700C}"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://leetcode.com/problems/majority-element" xr:uid="{F5212C32-3835-409A-BB6F-01345955707A}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://leetcode.com/problems/concatenation-of-array/" xr:uid="{1DF5FE91-33A4-46DB-8895-02B421EDA9D2}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://leetcode.com/problems/subtract-the-product-and-sum-of-digits-of-an-integer" xr:uid="{DC516D10-ABAC-4A32-8723-467633F9B41F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876FFB04-69ED-4614-B2BF-FB9FDCE860F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6138BCA9-1FE0-49D3-861A-23F9CB0835F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Easy</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>sum+=n%10; product*=n%10</t>
+  </si>
+  <si>
+    <t>missing-number</t>
+  </si>
+  <si>
+    <t>Use Cycle Sort</t>
   </si>
 </sst>
 </file>
@@ -389,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,14 +453,23 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://leetcode.com/problems/palindrome-number" xr:uid="{E27A10E6-7C0E-4BB3-A0C3-B091DEE8700C}"/>
     <hyperlink ref="A3" r:id="rId2" display="https://leetcode.com/problems/majority-element" xr:uid="{F5212C32-3835-409A-BB6F-01345955707A}"/>
     <hyperlink ref="A4" r:id="rId3" display="https://leetcode.com/problems/concatenation-of-array/" xr:uid="{1DF5FE91-33A4-46DB-8895-02B421EDA9D2}"/>
     <hyperlink ref="A6" r:id="rId4" display="https://leetcode.com/problems/subtract-the-product-and-sum-of-digits-of-an-integer" xr:uid="{DC516D10-ABAC-4A32-8723-467633F9B41F}"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://leetcode.com/problems/missing-number" xr:uid="{5D9552C0-9E25-412A-83DD-EA16FA223D9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6138BCA9-1FE0-49D3-861A-23F9CB0835F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49276E8B-8D2C-4497-A374-632053D5EDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Easy</t>
   </si>
@@ -64,6 +64,36 @@
   </si>
   <si>
     <t>Use Cycle Sort</t>
+  </si>
+  <si>
+    <t>find-all-numbers-disappeared-in-an-array</t>
+  </si>
+  <si>
+    <t>List&lt;Integer&gt; ans = new ArrayList&lt;&gt;()</t>
+  </si>
+  <si>
+    <t>Use Cycle Sort and return (index + 1)</t>
+  </si>
+  <si>
+    <t>find-the-duplicate-number/</t>
+  </si>
+  <si>
+    <t>Use Cycle Sort and return ( nums[index] )</t>
+  </si>
+  <si>
+    <t>Use Cycle Sort and return (nums[index], index+ 1)</t>
+  </si>
+  <si>
+    <t>set-mismatch/</t>
+  </si>
+  <si>
+    <t>shuffle-string/</t>
+  </si>
+  <si>
+    <t>Create char array and return new String(arr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium </t>
   </si>
 </sst>
 </file>
@@ -395,28 +425,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.5546875" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -424,7 +458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -432,7 +466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -440,12 +474,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -453,12 +487,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -468,8 +539,12 @@
     <hyperlink ref="A4" r:id="rId3" display="https://leetcode.com/problems/concatenation-of-array/" xr:uid="{1DF5FE91-33A4-46DB-8895-02B421EDA9D2}"/>
     <hyperlink ref="A6" r:id="rId4" display="https://leetcode.com/problems/subtract-the-product-and-sum-of-digits-of-an-integer" xr:uid="{DC516D10-ABAC-4A32-8723-467633F9B41F}"/>
     <hyperlink ref="A7" r:id="rId5" display="https://leetcode.com/problems/missing-number" xr:uid="{5D9552C0-9E25-412A-83DD-EA16FA223D9B}"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array" xr:uid="{233DB5ED-4198-469F-BE73-6C418ABF83C9}"/>
+    <hyperlink ref="A10" r:id="rId7" display="https://leetcode.com/problems/find-the-duplicate-number/" xr:uid="{4008C126-0C4F-43AA-B770-99EB99E4A052}"/>
+    <hyperlink ref="A11" r:id="rId8" display="https://leetcode.com/problems/set-mismatch/" xr:uid="{294F8B4D-4C5D-4F2F-B8D3-5F817A2343E9}"/>
+    <hyperlink ref="A12" r:id="rId9" display="https://leetcode.com/problems/shuffle-string/" xr:uid="{3BDFEC23-21EA-41C8-A405-9739606E8156}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>